--- a/COLETANDO/banco3.xlsx
+++ b/COLETANDO/banco3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>Data AMZN</t>
   </si>
@@ -71,6 +71,18 @@
     <t>Retorno BABA</t>
   </si>
   <si>
+    <t>Data SQ</t>
+  </si>
+  <si>
+    <t>Preço SQ</t>
+  </si>
+  <si>
+    <t>Retorno SQ</t>
+  </si>
+  <si>
+    <t>Oct 08, 2018</t>
+  </si>
+  <si>
     <t>Oct 05, 2018</t>
   </si>
   <si>
@@ -366,9 +378,6 @@
   </si>
   <si>
     <t>May 17, 2018</t>
-  </si>
-  <si>
-    <t>May 16, 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -720,7 +729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +737,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,5905 +792,6814 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>1.88965</v>
+        <v>1.86442</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01040790428407195</v>
+        <v>-0.01344161396682502</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>2735</v>
+        <v>2646</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01559980845820746</v>
+        <v>-0.03308237018118061</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>1980</v>
+        <v>1891</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.02444621613723387</v>
+        <v>-0.04599105503012344</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>9872</v>
+        <v>10465</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04263008409924506</v>
+        <v>0.05833388873493113</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>847</v>
+        <v>739</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.009400774284705779</v>
+        <v>-0.1364027737038526</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>15463</v>
+        <v>15114</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.009653827066089776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>-0.02282860689476524</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8606</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.08941958346024284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>1.90942</v>
+        <v>1.88965</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02244422545684202</v>
+        <v>-0.01040790428407195</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>2778</v>
+        <v>2735</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02312858833671075</v>
+        <v>-0.01559980845820746</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>2029</v>
+        <v>1980</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1087065597549737</v>
+        <v>-0.02444621613723387</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>9460</v>
+        <v>9872</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03070759101128765</v>
+        <v>0.04263008409924506</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O3" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05283341482134735</v>
+        <v>-0.009400774284705779</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R3" t="n">
-        <v>15613</v>
+        <v>15463</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.03918868804559412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>-0.009653827066089776</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9411</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.004029697923838058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>1.95276</v>
+        <v>1.90942</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.009454539893144525</v>
+        <v>-0.02244422545684202</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>2843</v>
+        <v>2778</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02054032179313332</v>
+        <v>-0.02312858833671075</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>1820</v>
+        <v>2029</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1313360020610869</v>
+        <v>0.1087065597549737</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>9755</v>
+        <v>9460</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04722808398086045</v>
+        <v>-0.03070759101128765</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
-        <v>811</v>
+        <v>855</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1052235199729761</v>
+        <v>0.05283341482134735</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R4" t="n">
-        <v>16237</v>
+        <v>15613</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01326739857923432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>-0.03918868804559412</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9449</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.02580451352646973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>1.97131</v>
+        <v>1.95276</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01662651143618882</v>
+        <v>-0.009454539893144525</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>2902</v>
+        <v>2843</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07945938537143335</v>
+        <v>-0.02054032179313332</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>1596</v>
+        <v>1820</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.004376374599798888</v>
+        <v>0.1313360020610869</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" t="n">
-        <v>9305</v>
+        <v>9755</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.04188322594894835</v>
+        <v>0.04722808398086045</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5" t="n">
-        <v>730</v>
+        <v>811</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2037791841324185</v>
+        <v>0.1052235199729761</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R5" t="n">
-        <v>16023</v>
+        <v>16237</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.01098605221259541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>0.01326739857923432</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9696</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.008932756148333176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>2.00436</v>
+        <v>1.97131</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006787511240382403</v>
+        <v>-0.01662651143618882</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>3142</v>
+        <v>2902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01701212589698481</v>
+        <v>-0.07945938537143335</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01486095460948487</v>
+        <v>-0.004376374599798888</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L6" t="n">
-        <v>9703</v>
+        <v>9305</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01067201756937187</v>
+        <v>-0.04188322594894835</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O6" t="n">
-        <v>895</v>
+        <v>730</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5145569713788488</v>
+        <v>-0.2037791841324185</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R6" t="n">
-        <v>16200</v>
+        <v>16023</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.01689353433549587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>-0.01098605221259541</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9783</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.005637860251480686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>2.003</v>
+        <v>2.00436</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.004970154504845182</v>
+        <v>0.0006787511240382403</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>3089</v>
+        <v>3142</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05357298591897983</v>
+        <v>0.01701212589698481</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>1627</v>
+        <v>1603</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1624827755542795</v>
+        <v>-0.01486095460948487</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>9600</v>
+        <v>9703</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06932774898073228</v>
+        <v>0.01067201756937187</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>535</v>
+        <v>895</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2685515908532048</v>
+        <v>0.5145569713788488</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R7" t="n">
-        <v>16476</v>
+        <v>16200</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.009423773981877489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>-0.01689353433549587</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9728</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.01762743691656639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>2.01298</v>
+        <v>2.003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01912376508682901</v>
+        <v>-0.004970154504845182</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>3259</v>
+        <v>3089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01234964753875344</v>
+        <v>-0.05357298591897983</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>1383</v>
+        <v>1627</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02786103962881878</v>
+        <v>0.1624827755542795</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>8957</v>
+        <v>9600</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04614441352507501</v>
+        <v>0.06932774898073228</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O8" t="n">
-        <v>409</v>
+        <v>535</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.08210940638942298</v>
+        <v>0.2685515908532048</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R8" t="n">
-        <v>16632</v>
+        <v>16476</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005546860960166575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>-0.009423773981877489</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9901</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01066162305045639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>1.97485</v>
+        <v>2.01298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001519218112001088</v>
+        <v>0.01912376508682901</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>3219</v>
+        <v>3259</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01173577397742529</v>
+        <v>0.01234964753875344</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I9" t="n">
-        <v>1345</v>
+        <v>1383</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03402974858631147</v>
+        <v>0.02786103962881878</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L9" t="n">
-        <v>9380</v>
+        <v>8957</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04492444216312041</v>
+        <v>-0.04614441352507501</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O9" t="n">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.004494389587839326</v>
+        <v>-0.08210940638942298</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R9" t="n">
-        <v>16540</v>
+        <v>16632</v>
       </c>
       <c r="S9" t="n">
-        <v>0.00697712522487108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>0.005546860960166575</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9796</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.03437335442863514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>1.97455</v>
+        <v>1.97485</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02056400187238858</v>
+        <v>0.0001519218112001088</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>3257</v>
+        <v>3219</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.001227370513085687</v>
+        <v>-0.01173577397742529</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I10" t="n">
-        <v>1300</v>
+        <v>1345</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04725288485054551</v>
+        <v>0.03402974858631147</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L10" t="n">
-        <v>9811</v>
+        <v>9380</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03590342051996754</v>
+        <v>-0.04492444216312041</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1189047407655835</v>
+        <v>-0.004494389587839326</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R10" t="n">
-        <v>16425</v>
+        <v>16540</v>
       </c>
       <c r="S10" t="n">
-        <v>0.006658342915362086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>0.00697712522487108</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9465</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.00736845439109624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>1.93436</v>
+        <v>1.97455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01005367786701853</v>
+        <v>0.02056400187238858</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>3261</v>
+        <v>3257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04998683205283498</v>
+        <v>-0.001227370513085687</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="J11" t="n">
-        <v>1.422423085208396</v>
+        <v>0.04725288485054551</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L11" t="n">
-        <v>9465</v>
+        <v>9811</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02600885087677229</v>
+        <v>0.03590342051996754</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O11" t="n">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.4402080565520373</v>
+        <v>0.1189047407655835</v>
       </c>
       <c r="Q11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R11" t="n">
-        <v>16316</v>
+        <v>16425</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.008969217210572703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.006658342915362086</v>
+      </c>
+      <c r="T11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9535</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1027420276468988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>1.91501</v>
+        <v>1.93436</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01517917056855287</v>
+        <v>0.01005367786701853</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>3102</v>
+        <v>3261</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.005144705881237706</v>
+        <v>0.04998683205283498</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>299</v>
+        <v>1240</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0202709643736192</v>
+        <v>1.422423085208396</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>9222</v>
+        <v>9465</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.02864667883732274</v>
+        <v>0.02600885087677229</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O12" t="n">
-        <v>615</v>
+        <v>396</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.2440614499758905</v>
+        <v>-0.4402080565520373</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R12" t="n">
-        <v>16463</v>
+        <v>16316</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.007564103718250118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>-0.008969217210572703</v>
+      </c>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8604</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.008637849901895915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>1.9443</v>
+        <v>1.91501</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00923865698137054</v>
+        <v>-0.01517917056855287</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>3118</v>
+        <v>3102</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0009616926530575837</v>
+        <v>-0.005144705881237706</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02768342874841687</v>
+        <v>0.0202709643736192</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L13" t="n">
-        <v>9490</v>
+        <v>9222</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1172563040139707</v>
+        <v>-0.02864667883732274</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O13" t="n">
-        <v>785</v>
+        <v>615</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5857505226868184</v>
+        <v>-0.2440614499758905</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R13" t="n">
-        <v>16588</v>
+        <v>16463</v>
       </c>
       <c r="S13" t="n">
-        <v>0.019786953437824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>-0.007564103718250118</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8530</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.01408555969464954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>1.92642</v>
+        <v>1.9443</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.007565705634388149</v>
+        <v>0.00923865698137054</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02280745044400256</v>
+        <v>-0.0009616926530575837</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I14" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03208831455150045</v>
+        <v>0.02768342874841687</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L14" t="n">
-        <v>8440</v>
+        <v>9490</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008259633977417033</v>
+        <v>0.1172563040139707</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O14" t="n">
-        <v>437</v>
+        <v>785</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4380261241574765</v>
+        <v>0.5857505226868184</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R14" t="n">
-        <v>16263</v>
+        <v>16588</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03746366454215586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.019786953437824</v>
+      </c>
+      <c r="T14" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8651</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.01996447139442545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>1.94105</v>
+        <v>1.92642</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01715776759973479</v>
+        <v>-0.007565705634388149</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>3193</v>
+        <v>3121</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01553791359253593</v>
+        <v>-0.02280745044400256</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I15" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.02504603192608757</v>
+        <v>0.03208831455150045</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L15" t="n">
-        <v>8510</v>
+        <v>8440</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1030130967395213</v>
+        <v>-0.008259633977417033</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O15" t="n">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2038277620149182</v>
+        <v>0.4380261241574765</v>
       </c>
       <c r="Q15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R15" t="n">
-        <v>15665</v>
+        <v>16263</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01419812150207485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>0.03746366454215586</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8480</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.03692762885961203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>1.90803</v>
+        <v>1.94105</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03205868862679517</v>
+        <v>0.01715776759973479</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>3243</v>
+        <v>3193</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.008902591415319754</v>
+        <v>-0.01553791359253593</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02443402533728213</v>
+        <v>-0.02504603192608757</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L16" t="n">
-        <v>7677</v>
+        <v>8510</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1633544699071999</v>
+        <v>0.1030130967395213</v>
       </c>
       <c r="N16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O16" t="n">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3691751067029638</v>
+        <v>0.2038277620149182</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R16" t="n">
-        <v>15889</v>
+        <v>15665</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.036156334612827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>-0.01419812150207485</v>
+      </c>
+      <c r="T16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" t="n">
+        <v>8799</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01292554455079353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>1.97019</v>
+        <v>1.90803</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.009939325169636949</v>
+        <v>-0.03205868862679517</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>3272</v>
+        <v>3243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07091578091610073</v>
+        <v>-0.008902591415319754</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I17" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01369884435816192</v>
+        <v>-0.02443402533728213</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L17" t="n">
-        <v>6520</v>
+        <v>7677</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0224902848940717</v>
+        <v>0.1633544699071999</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O17" t="n">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01265839687192346</v>
+        <v>0.3691751067029638</v>
       </c>
       <c r="Q17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R17" t="n">
-        <v>16474</v>
+        <v>15889</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.004783973758971394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>-0.036156334612827</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8686</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.04458189856312929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>1.98987</v>
+        <v>1.97019</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.532876704326335e-05</v>
+        <v>-0.009939325169636949</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>3048</v>
+        <v>3272</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.05520623252466195</v>
+        <v>0.07091578091610073</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.04326798024851556</v>
+        <v>-0.01369884435816192</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L18" t="n">
-        <v>6375</v>
+        <v>6520</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.09509625318034076</v>
+        <v>0.0224902848940717</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O18" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.06174800706844708</v>
+        <v>0.01265839687192346</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R18" t="n">
-        <v>16553</v>
+        <v>16474</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02489501330520476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>-0.004783973758971394</v>
+      </c>
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9082</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.006628393689555162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>1.99</v>
+        <v>1.98987</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001433187326518334</v>
+        <v>-6.532876704326335e-05</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F19" t="n">
-        <v>3221</v>
+        <v>3048</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06775179158827742</v>
+        <v>-0.05520623252466195</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I19" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.03834335519764739</v>
+        <v>-0.04326798024851556</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L19" t="n">
-        <v>7011</v>
+        <v>6375</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0130645745952523</v>
+        <v>-0.09509625318034076</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O19" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01780462463350671</v>
+        <v>-0.06174800706844708</v>
       </c>
       <c r="Q19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R19" t="n">
-        <v>16146</v>
+        <v>16553</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0250859762105483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>0.02489501330520476</v>
+      </c>
+      <c r="T19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" t="n">
+        <v>9022</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.00243551542951927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>1.98715</v>
+        <v>1.99</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02452391786509084</v>
+        <v>0.001433187326518334</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>3010</v>
+        <v>3221</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007001195458983561</v>
+        <v>0.06775179158827742</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003139720004667846</v>
+        <v>-0.03834335519764739</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L20" t="n">
-        <v>6920</v>
+        <v>7011</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0906965614708122</v>
+        <v>0.0130645745952523</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O20" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.07368771579115914</v>
+        <v>-0.01780462463350671</v>
       </c>
       <c r="Q20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R20" t="n">
-        <v>15746</v>
+        <v>16146</v>
       </c>
       <c r="S20" t="n">
-        <v>0.007010416831567096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>0.0250859762105483</v>
+      </c>
+      <c r="T20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9044</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.02014078589578385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>1.93901</v>
+        <v>1.98715</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.006712814458868495</v>
+        <v>0.02452391786509084</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
-        <v>2989</v>
+        <v>3010</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08771115643554368</v>
+        <v>0.007001195458983561</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J21" t="n">
-        <v>0.009478743954543739</v>
+        <v>0.003139720004667846</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L21" t="n">
-        <v>6320</v>
+        <v>6920</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02402037024146966</v>
+        <v>0.0906965614708122</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O21" t="n">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="P21" t="n">
-        <v>0.07368771579115913</v>
+        <v>-0.07368771579115914</v>
       </c>
       <c r="Q21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R21" t="n">
-        <v>15636</v>
+        <v>15746</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.03771664067426894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>0.007010416831567096</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" t="n">
+        <v>9228</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.03181861420579172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>1.95207</v>
+        <v>1.93901</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.003191508393852539</v>
+        <v>-0.006712814458868495</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>2738</v>
+        <v>2989</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01666101560591601</v>
+        <v>0.08771115643554368</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01261846395921146</v>
+        <v>0.009478743954543739</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L22" t="n">
-        <v>6170</v>
+        <v>6320</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0152797504307352</v>
+        <v>0.02402037024146966</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O22" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.1823215567939546</v>
+        <v>0.07368771579115913</v>
       </c>
       <c r="Q22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R22" t="n">
-        <v>16237</v>
+        <v>15636</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01551669662222236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>-0.03771664067426894</v>
+      </c>
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" t="n">
+        <v>8939</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-0.0064674623292662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>1.95831</v>
+        <v>1.95207</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01847196430983292</v>
+        <v>-0.003191508393852539</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F23" t="n">
-        <v>2784</v>
+        <v>2738</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02378106745836172</v>
+        <v>-0.01666101560591601</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I23" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01555241300748477</v>
+        <v>-0.01261846395921146</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L23" t="n">
-        <v>6265</v>
+        <v>6170</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.05451236937335861</v>
+        <v>-0.0152797504307352</v>
       </c>
       <c r="N23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O23" t="n">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04512043528046964</v>
+        <v>-0.1823215567939546</v>
       </c>
       <c r="Q23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R23" t="n">
-        <v>15987</v>
+        <v>16237</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.02690689937266902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>0.01551669662222236</v>
+      </c>
+      <c r="T23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" t="n">
+        <v>8997</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.01602185412503243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>1.99482</v>
+        <v>1.95831</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02215576221864942</v>
+        <v>-0.01847196430983292</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24" t="n">
-        <v>2851</v>
+        <v>2784</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01590982825026576</v>
+        <v>-0.02378106745836172</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I24" t="n">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01531423497304248</v>
+        <v>-0.01555241300748477</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L24" t="n">
-        <v>6616</v>
+        <v>6265</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.02743165446067086</v>
+        <v>-0.05451236937335861</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O24" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1670540846631662</v>
+        <v>0.04512043528046964</v>
       </c>
       <c r="Q24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R24" t="n">
-        <v>16423</v>
+        <v>15987</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.03711544428224171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>-0.02690689937266902</v>
+      </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" t="n">
+        <v>8854</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.015250096389061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
-        <v>2.03951</v>
+        <v>1.99482</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01322751023318269</v>
+        <v>-0.02215576221864942</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>2806</v>
+        <v>2851</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1086922655270903</v>
+        <v>0.01590982825026576</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I25" t="n">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04031553717845977</v>
+        <v>-0.01531423497304248</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L25" t="n">
-        <v>6800</v>
+        <v>6616</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01780462463350669</v>
+        <v>-0.02743165446067086</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O25" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1087332001364656</v>
+        <v>0.1670540846631662</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R25" t="n">
-        <v>17044</v>
+        <v>16423</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.02645978651635475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>-0.03711544428224171</v>
+      </c>
+      <c r="T25" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8720</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.04539866154766693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>2.01271</v>
+        <v>2.03951</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005145599621648658</v>
+        <v>0.01322751023318269</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>2517</v>
+        <v>2806</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01118669276772393</v>
+        <v>0.1086922655270903</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I26" t="n">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02808296874282536</v>
+        <v>0.04031553717845977</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L26" t="n">
-        <v>6680</v>
+        <v>6800</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0154489109410476</v>
+        <v>0.01780462463350669</v>
       </c>
       <c r="N26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O26" t="n">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01342302033214066</v>
+        <v>0.1087332001364656</v>
       </c>
       <c r="Q26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R26" t="n">
-        <v>17501</v>
+        <v>17044</v>
       </c>
       <c r="S26" t="n">
-        <v>0.002345471742564205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>-0.02645978651635475</v>
+      </c>
+      <c r="T26" t="s">
+        <v>45</v>
+      </c>
+      <c r="U26" t="n">
+        <v>9125</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.02901976946362718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C27" t="n">
-        <v>2.00238</v>
+        <v>2.01271</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002139744047214383</v>
+        <v>0.005145599621648658</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F27" t="n">
-        <v>2489</v>
+        <v>2517</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01237787813787694</v>
+        <v>0.01118669276772393</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I27" t="n">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009273636785329253</v>
+        <v>-0.02808296874282536</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L27" t="n">
-        <v>6784</v>
+        <v>6680</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.03775124686104156</v>
+        <v>-0.0154489109410476</v>
       </c>
       <c r="N27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O27" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.01324522675002068</v>
+        <v>-0.01342302033214066</v>
       </c>
       <c r="Q27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R27" t="n">
-        <v>17460</v>
+        <v>17501</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.02209095781419197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>0.002345471742564205</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" t="n">
+        <v>8864</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.009977407031998972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>1.9981</v>
+        <v>2.00238</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03321665263700881</v>
+        <v>0.002139744047214383</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
-        <v>2520</v>
+        <v>2489</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005970166986503754</v>
+        <v>-0.01237787813787694</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I28" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07076907088820716</v>
+        <v>0.009273636785329253</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L28" t="n">
-        <v>7045</v>
+        <v>6784</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06524849631826364</v>
+        <v>-0.03775124686104156</v>
       </c>
       <c r="N28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O28" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06805346324501557</v>
+        <v>-0.01324522675002068</v>
       </c>
       <c r="Q28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R28" t="n">
-        <v>17850</v>
+        <v>17460</v>
       </c>
       <c r="S28" t="n">
-        <v>0.001738204480370332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>-0.02209095781419197</v>
+      </c>
+      <c r="T28" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8776</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.02375299036324064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" t="n">
-        <v>1.93282</v>
+        <v>1.9981</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002662869077713331</v>
+        <v>0.03321665263700881</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F29" t="n">
-        <v>2505</v>
+        <v>2520</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.008348289391471274</v>
+        <v>0.005970166986503754</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04779066383634848</v>
+        <v>0.07076907088820716</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L29" t="n">
-        <v>6600</v>
+        <v>7045</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0730251350148899</v>
+        <v>0.06524849631826364</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O29" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.03460552917747561</v>
+        <v>0.06805346324501557</v>
       </c>
       <c r="Q29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R29" t="n">
-        <v>17819</v>
+        <v>17850</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.01371106085432592</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>0.001738204480370332</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8570</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.05887586007668436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C30" t="n">
-        <v>1.92768</v>
+        <v>1.93282</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01163049527429677</v>
+        <v>0.002662869077713331</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F30" t="n">
-        <v>2526</v>
+        <v>2505</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05200196732297681</v>
+        <v>-0.008348289391471274</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I30" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03197430463251411</v>
+        <v>0.04779066383634848</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L30" t="n">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07454143553285381</v>
+        <v>-0.0730251350148899</v>
       </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O30" t="n">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1076306641923654</v>
+        <v>-0.03460552917747561</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R30" t="n">
-        <v>18065</v>
+        <v>17819</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03618519215883534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>-0.01371106085432592</v>
+      </c>
+      <c r="T30" t="s">
+        <v>49</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8080</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.03206813610678701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>1.90539</v>
+        <v>1.92768</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00130767370910668</v>
+        <v>0.01163049527429677</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>2398</v>
+        <v>2526</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07308200220159074</v>
+        <v>0.05200196732297681</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I31" t="n">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J31" t="n">
-        <v>0.007246408520767253</v>
+        <v>0.03197430463251411</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L31" t="n">
-        <v>6590</v>
+        <v>7100</v>
       </c>
       <c r="M31" t="n">
-        <v>0.07235859856629573</v>
+        <v>0.07454143553285381</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O31" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.007547205635382966</v>
+        <v>0.1076306641923654</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R31" t="n">
-        <v>17423</v>
+        <v>18065</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01154547258715873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>0.03618519215883534</v>
+      </c>
+      <c r="T31" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" t="n">
+        <v>7825</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0008949690554538775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C32" t="n">
-        <v>1.9029</v>
+        <v>1.90539</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001050475436691181</v>
+        <v>0.00130767370910668</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F32" t="n">
-        <v>2229</v>
+        <v>2398</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0643889884270122</v>
+        <v>0.07308200220159074</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I32" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.05998270460171046</v>
+        <v>0.007246408520767253</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L32" t="n">
-        <v>6130</v>
+        <v>6590</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.01006338633930602</v>
+        <v>0.07235859856629573</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O32" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P32" t="n">
-        <v>0.007547205635382904</v>
+        <v>-0.007547205635382966</v>
       </c>
       <c r="Q32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R32" t="n">
-        <v>17223</v>
+        <v>17423</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.03210970554680909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>0.01154547258715873</v>
+      </c>
+      <c r="T32" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" t="n">
+        <v>7818</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.01365121006251853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C33" t="n">
-        <v>1.9049</v>
+        <v>1.9029</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01134024063194224</v>
+        <v>-0.001050475436691181</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F33" t="n">
-        <v>2090</v>
+        <v>2229</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02421425812059453</v>
+        <v>0.0643889884270122</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I33" t="n">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="J33" t="n">
-        <v>0.02777956410707567</v>
+        <v>-0.05998270460171046</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L33" t="n">
-        <v>6192</v>
+        <v>6130</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.01570293442492317</v>
+        <v>-0.01006338633930602</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O33" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.1861022796338606</v>
+        <v>0.007547205635382904</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R33" t="n">
-        <v>17785</v>
+        <v>17223</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.0003935126677533681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>-0.03210970554680909</v>
+      </c>
+      <c r="T33" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7712</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.00885653093021798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C34" t="n">
-        <v>1.88342</v>
+        <v>1.9049</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003569029327521505</v>
+        <v>0.01134024063194224</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F34" t="n">
-        <v>2040</v>
+        <v>2090</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02080312762976333</v>
+        <v>0.02421425812059453</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.01050797759841509</v>
+        <v>0.02777956410707567</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L34" t="n">
-        <v>6290</v>
+        <v>6192</v>
       </c>
       <c r="M34" t="n">
-        <v>0.07081146712342799</v>
+        <v>-0.01570293442492317</v>
       </c>
       <c r="N34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O34" t="n">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="P34" t="n">
-        <v>0.03195159980660243</v>
+        <v>-0.1861022796338606</v>
       </c>
       <c r="Q34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R34" t="n">
-        <v>17792</v>
+        <v>17785</v>
       </c>
       <c r="S34" t="n">
-        <v>0.009203644764565585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>-0.0003935126677533681</v>
+      </c>
+      <c r="T34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7644</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.01648787598213671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" t="n">
-        <v>1.87671</v>
+        <v>1.88342</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.002931687446396187</v>
+        <v>0.003569029327521505</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F35" t="n">
-        <v>1998</v>
+        <v>2040</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01056613603788191</v>
+        <v>0.02080312762976333</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I35" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.03087723856443923</v>
+        <v>-0.01050797759841509</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L35" t="n">
-        <v>5860</v>
+        <v>6290</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1647297634803838</v>
+        <v>0.07081146712342799</v>
       </c>
       <c r="N35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O35" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.07503518594291408</v>
+        <v>0.03195159980660243</v>
       </c>
       <c r="Q35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R35" t="n">
-        <v>17629</v>
+        <v>17792</v>
       </c>
       <c r="S35" t="n">
-        <v>0.02011125736691389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>0.009203644764565585</v>
+      </c>
+      <c r="T35" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7519</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.01244579464100144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C36" t="n">
-        <v>1.88222</v>
+        <v>1.87671</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002281930759838015</v>
+        <v>-0.002931687446396187</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F36" t="n">
-        <v>1977</v>
+        <v>1998</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02250734396228606</v>
+        <v>0.01056613603788191</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I36" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02006756305080926</v>
+        <v>-0.03087723856443923</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L36" t="n">
-        <v>4970</v>
+        <v>5860</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04527522206198761</v>
+        <v>0.1647297634803838</v>
       </c>
       <c r="N36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O36" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.06979576193554198</v>
+        <v>-0.07503518594291408</v>
       </c>
       <c r="Q36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R36" t="n">
-        <v>17278</v>
+        <v>17629</v>
       </c>
       <c r="S36" t="n">
-        <v>0.004582773342337083</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>0.02011125736691389</v>
+      </c>
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="n">
+        <v>7426</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0184838097343215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C37" t="n">
-        <v>1.88652</v>
+        <v>1.88222</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002069438329081372</v>
+        <v>-0.002281930759838015</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F37" t="n">
-        <v>1933</v>
+        <v>1977</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01896034252370325</v>
+        <v>0.02250734396228606</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I37" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02006756305080917</v>
+        <v>-0.02006756305080926</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L37" t="n">
-        <v>4750</v>
+        <v>4970</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.02618059357247527</v>
+        <v>0.04527522206198761</v>
       </c>
       <c r="N37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O37" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.04396312342111606</v>
+        <v>-0.06979576193554198</v>
       </c>
       <c r="Q37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R37" t="n">
-        <v>17199</v>
+        <v>17278</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01263839887172285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>0.004582773342337083</v>
+      </c>
+      <c r="T37" t="s">
+        <v>56</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7290</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.001922285364691009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C38" t="n">
-        <v>1.88262</v>
+        <v>1.88652</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01947845407567382</v>
+        <v>0.002069438329081372</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F38" t="n">
-        <v>1970</v>
+        <v>1933</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01611313814313172</v>
+        <v>-0.01896034252370325</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I38" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.02006756305080917</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L38" t="n">
-        <v>4876</v>
+        <v>4750</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1733382379087629</v>
+        <v>-0.02618059357247527</v>
       </c>
       <c r="N38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O38" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.0265267543334286</v>
+        <v>-0.04396312342111606</v>
       </c>
       <c r="Q38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R38" t="n">
-        <v>16983</v>
+        <v>17199</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.01577319767709428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>0.01263839887172285</v>
+      </c>
+      <c r="T38" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7276</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.007172444541191442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>1.91965</v>
+        <v>1.88262</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01229099425415635</v>
+        <v>-0.01947845407567382</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F39" t="n">
-        <v>2002</v>
+        <v>1970</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01459145385255051</v>
+        <v>-0.01611313814313172</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I39" t="n">
         <v>296</v>
       </c>
       <c r="J39" t="n">
-        <v>0.03087723856443923</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L39" t="n">
-        <v>4100</v>
+        <v>4876</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.08640143491521537</v>
+        <v>0.1733382379087629</v>
       </c>
       <c r="N39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O39" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1047789512331768</v>
+        <v>-0.0265267543334286</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R39" t="n">
-        <v>17253</v>
+        <v>16983</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.02941304519239949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>-0.01577319767709428</v>
+      </c>
+      <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" t="n">
+        <v>7224</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.03709412440624071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C40" t="n">
-        <v>1.8962</v>
+        <v>1.91965</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005234645132179908</v>
+        <v>0.01229099425415635</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F40" t="n">
-        <v>1973</v>
+        <v>2002</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03454842180846791</v>
+        <v>0.01459145385255051</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I40" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J40" t="n">
-        <v>0.003490404939768568</v>
+        <v>0.03087723856443923</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L40" t="n">
-        <v>4470</v>
+        <v>4100</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0407683018036592</v>
+        <v>-0.08640143491521537</v>
       </c>
       <c r="N40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O40" t="n">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.04546237407675729</v>
+        <v>0.1047789512331768</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R40" t="n">
-        <v>17768</v>
+        <v>17253</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.01302822531644125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>-0.02941304519239949</v>
+      </c>
+      <c r="T40" t="s">
+        <v>59</v>
+      </c>
+      <c r="U40" t="n">
+        <v>7497</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.03529618463693449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C41" t="n">
-        <v>1.8863</v>
+        <v>1.8962</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.00645739689729395</v>
+        <v>0.005234645132179908</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F41" t="n">
-        <v>1906</v>
+        <v>1973</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.002096436826528182</v>
+        <v>0.03454842180846791</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I41" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.003490404939768491</v>
+        <v>0.003490404939768568</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L41" t="n">
-        <v>4656</v>
+        <v>4470</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.02628383607422788</v>
+        <v>-0.0407683018036592</v>
       </c>
       <c r="N41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O41" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.02739897418811439</v>
+        <v>-0.04546237407675729</v>
       </c>
       <c r="Q41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R41" t="n">
-        <v>18001</v>
+        <v>17768</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01578980173263529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>-0.01302822531644125</v>
+      </c>
+      <c r="T41" t="s">
+        <v>60</v>
+      </c>
+      <c r="U41" t="n">
+        <v>7237</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.02476170437883993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C42" t="n">
-        <v>1.89852</v>
+        <v>1.8863</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006340773257550002</v>
+        <v>-0.00645739689729395</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F42" t="n">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.02482030204978014</v>
+        <v>-0.002096436826528182</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I42" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J42" t="n">
-        <v>0.006993035490970604</v>
+        <v>-0.003490404939768491</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L42" t="n">
-        <v>4780</v>
+        <v>4656</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0006278120955398065</v>
+        <v>-0.02628383607422788</v>
       </c>
       <c r="N42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O42" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P42" t="n">
-        <v>0.02739897418811435</v>
+        <v>-0.02739897418811439</v>
       </c>
       <c r="Q42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R42" t="n">
-        <v>17719</v>
+        <v>18001</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.001860675454360549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>0.01578980173263529</v>
+      </c>
+      <c r="T42" t="s">
+        <v>61</v>
+      </c>
+      <c r="U42" t="n">
+        <v>7060</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.01743150295759264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>1.88652</v>
+        <v>1.89852</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01282492905039741</v>
+        <v>0.006340773257550002</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F43" t="n">
-        <v>1958</v>
+        <v>1910</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001021972495692968</v>
+        <v>-0.02482030204978014</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I43" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.04460430623675392</v>
+        <v>0.006993035490970604</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L43" t="n">
-        <v>4777</v>
+        <v>4780</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01625022569181185</v>
+        <v>0.0006278120955398065</v>
       </c>
       <c r="N43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O43" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01117330059812525</v>
+        <v>0.02739897418811435</v>
       </c>
       <c r="Q43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R43" t="n">
-        <v>17752</v>
+        <v>17719</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.0134290290267218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>-0.001860675454360549</v>
+      </c>
+      <c r="T43" t="s">
+        <v>62</v>
+      </c>
+      <c r="U43" t="n">
+        <v>6938</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.02054280514215405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C44" t="n">
-        <v>1.86248</v>
+        <v>1.88652</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007940250276029456</v>
+        <v>0.01282492905039741</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F44" t="n">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="G44" t="n">
-        <v>0.006668401217322508</v>
+        <v>0.001021972495692968</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I44" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02721256352488479</v>
+        <v>-0.04460430623675392</v>
       </c>
       <c r="K44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L44" t="n">
-        <v>4700</v>
+        <v>4777</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.09337407077745852</v>
+        <v>0.01625022569181185</v>
       </c>
       <c r="N44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O44" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.02222313678471024</v>
+        <v>0.01117330059812525</v>
       </c>
       <c r="Q44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R44" t="n">
-        <v>17992</v>
+        <v>17752</v>
       </c>
       <c r="S44" t="n">
-        <v>0.007251663395320206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>-0.0134290290267218</v>
+      </c>
+      <c r="T44" t="s">
+        <v>63</v>
+      </c>
+      <c r="U44" t="n">
+        <v>7082</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.002538430357557699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C45" t="n">
-        <v>1.84775</v>
+        <v>1.86248</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01332612119583844</v>
+        <v>0.007940250276029456</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F45" t="n">
-        <v>1943</v>
+        <v>1956</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04958821799031527</v>
+        <v>0.006668401217322508</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I45" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="J45" t="n">
-        <v>0.08263226458027018</v>
+        <v>0.02721256352488479</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L45" t="n">
-        <v>5160</v>
+        <v>4700</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0195700961940973</v>
+        <v>-0.09337407077745852</v>
       </c>
       <c r="N45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O45" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.03774032798284709</v>
+        <v>-0.02222313678471024</v>
       </c>
       <c r="Q45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R45" t="n">
-        <v>17862</v>
+        <v>17992</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.01235201817066442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>0.007251663395320206</v>
+      </c>
+      <c r="T45" t="s">
+        <v>64</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7100</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.001127395835308186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C46" t="n">
-        <v>1.82329</v>
+        <v>1.84775</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.006036730730216951</v>
+        <v>0.01332612119583844</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F46" t="n">
-        <v>1849</v>
+        <v>1943</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0160947680263405</v>
+        <v>0.04958821799031527</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I46" t="n">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.01487016247945139</v>
+        <v>0.08263226458027018</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L46" t="n">
-        <v>5060</v>
+        <v>5160</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.01957009619409722</v>
+        <v>0.0195700961940973</v>
       </c>
       <c r="N46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O46" t="n">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.04145671367834614</v>
+        <v>-0.03774032798284709</v>
       </c>
       <c r="Q46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R46" t="n">
-        <v>18084</v>
+        <v>17862</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.009685305734463655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>-0.01235201817066442</v>
+      </c>
+      <c r="T46" t="s">
+        <v>65</v>
+      </c>
+      <c r="U46" t="n">
+        <v>7092</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.03676462295861694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>1.83433</v>
+        <v>1.82329</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02046608677567814</v>
+        <v>-0.006036730730216951</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F47" t="n">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01663574721183585</v>
+        <v>-0.0160947680263405</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I47" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.01465227678687037</v>
+        <v>-0.01487016247945139</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L47" t="n">
-        <v>5160</v>
+        <v>5060</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.01919444725614718</v>
+        <v>-0.01957009619409722</v>
       </c>
       <c r="N47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O47" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.03000225030379879</v>
+        <v>-0.04145671367834614</v>
       </c>
       <c r="Q47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R47" t="n">
-        <v>18260</v>
+        <v>18084</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.01451625240105326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>-0.009685305734463655</v>
+      </c>
+      <c r="T47" t="s">
+        <v>66</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6836</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.0608655317689018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C48" t="n">
-        <v>1.79717</v>
+        <v>1.83433</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01103907859028436</v>
+        <v>0.02046608677567814</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F48" t="n">
-        <v>1848</v>
+        <v>1879</v>
       </c>
       <c r="G48" t="n">
-        <v>0.008150004361924408</v>
+        <v>0.01663574721183585</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I48" t="n">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0755075525081451</v>
+        <v>-0.01465227678687037</v>
       </c>
       <c r="K48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L48" t="n">
-        <v>5260</v>
+        <v>5160</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.03548458192553416</v>
+        <v>-0.01919444725614718</v>
       </c>
       <c r="N48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O48" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>-0.03000225030379879</v>
       </c>
       <c r="Q48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R48" t="n">
-        <v>18527</v>
+        <v>18260</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.01052358705214002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>-0.01451625240105326</v>
+      </c>
+      <c r="T48" t="s">
+        <v>67</v>
+      </c>
+      <c r="U48" t="n">
+        <v>7265</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.08305250902433933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C49" t="n">
-        <v>1.77744</v>
+        <v>1.79717</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.001000939166865605</v>
+        <v>0.01103907859028436</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F49" t="n">
-        <v>1833</v>
+        <v>1848</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.05776440101156523</v>
+        <v>0.008150004361924408</v>
       </c>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I49" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04000533461369921</v>
+        <v>0.0755075525081451</v>
       </c>
       <c r="K49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L49" t="n">
-        <v>5450</v>
+        <v>5260</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05081055240376102</v>
+        <v>-0.03548458192553416</v>
       </c>
       <c r="N49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O49" t="n">
         <v>203</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.03390155167568134</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R49" t="n">
-        <v>18723</v>
+        <v>18527</v>
       </c>
       <c r="S49" t="n">
-        <v>0.01295542915416686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>-0.01052358705214002</v>
+      </c>
+      <c r="T49" t="s">
+        <v>68</v>
+      </c>
+      <c r="U49" t="n">
+        <v>6686</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.03361277577408597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C50" t="n">
-        <v>1.77922</v>
+        <v>1.77744</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.02116030894429601</v>
+        <v>-0.001000939166865605</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F50" t="n">
-        <v>1942</v>
+        <v>1833</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02502737510524665</v>
+        <v>-0.05776440101156523</v>
       </c>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I50" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.07089582163303759</v>
+        <v>0.04000533461369921</v>
       </c>
       <c r="K50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L50" t="n">
-        <v>5180</v>
+        <v>5450</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.03229150463652354</v>
+        <v>0.05081055240376102</v>
       </c>
       <c r="N50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O50" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.02353049741019416</v>
+        <v>-0.03390155167568134</v>
       </c>
       <c r="Q50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R50" t="n">
-        <v>18482</v>
+        <v>18723</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.02458439333806094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>0.01295542915416686</v>
+      </c>
+      <c r="T50" t="s">
+        <v>69</v>
+      </c>
+      <c r="U50" t="n">
+        <v>6465</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.01489242231508905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C51" t="n">
-        <v>1.81727</v>
+        <v>1.77922</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005114112992451961</v>
+        <v>-0.02116030894429601</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F51" t="n">
-        <v>1894</v>
+        <v>1942</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03164651325735283</v>
+        <v>0.02502737510524665</v>
       </c>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I51" t="n">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.03731776300719516</v>
+        <v>-0.07089582163303759</v>
       </c>
       <c r="K51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L51" t="n">
-        <v>5350</v>
+        <v>5180</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01696553415829667</v>
+        <v>-0.03229150463652354</v>
       </c>
       <c r="N51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.03203935374461666</v>
+        <v>-0.02353049741019416</v>
       </c>
       <c r="Q51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R51" t="n">
-        <v>18942</v>
+        <v>18482</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.02481879214404355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>-0.02458439333806094</v>
+      </c>
+      <c r="T51" t="s">
+        <v>70</v>
+      </c>
+      <c r="U51" t="n">
+        <v>6562</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.06246955817001521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C52" t="n">
-        <v>1.808</v>
+        <v>1.81727</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0302942049344833</v>
+        <v>0.005114112992451961</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F52" t="n">
-        <v>1835</v>
+        <v>1894</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1339207249245544</v>
+        <v>0.03164651325735283</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I52" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J52" t="n">
-        <v>0.003669728888962402</v>
+        <v>-0.03731776300719516</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L52" t="n">
-        <v>5260</v>
+        <v>5350</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.01134227660393449</v>
+        <v>0.01696553415829667</v>
       </c>
       <c r="N52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O52" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P52" t="n">
-        <v>0.004514680354526613</v>
+        <v>-0.03203935374461666</v>
       </c>
       <c r="Q52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R52" t="n">
-        <v>19418</v>
+        <v>18942</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.01938045154966246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>-0.02481879214404355</v>
+      </c>
+      <c r="T52" t="s">
+        <v>71</v>
+      </c>
+      <c r="U52" t="n">
+        <v>6985</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.03017713477824075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C53" t="n">
-        <v>1.86361</v>
+        <v>1.808</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01861488685874225</v>
+        <v>-0.0302942049344833</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F53" t="n">
-        <v>1605</v>
+        <v>1835</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.008684918113518909</v>
+        <v>0.1339207249245544</v>
       </c>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I53" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.007326040092072898</v>
+        <v>0.003669728888962402</v>
       </c>
       <c r="K53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L53" t="n">
-        <v>5320</v>
+        <v>5260</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0186225120980018</v>
+        <v>-0.01134227660393449</v>
       </c>
       <c r="N53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O53" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P53" t="n">
-        <v>0.02288429383358781</v>
+        <v>0.004514680354526613</v>
       </c>
       <c r="Q53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R53" t="n">
-        <v>19798</v>
+        <v>19418</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04641900043201894</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>-0.01938045154966246</v>
+      </c>
+      <c r="T53" t="s">
+        <v>72</v>
+      </c>
+      <c r="U53" t="n">
+        <v>7199</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-0.007473048894109451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C54" t="n">
-        <v>1.82924</v>
+        <v>1.86361</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01500342085957968</v>
+        <v>0.01861488685874225</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F54" t="n">
-        <v>1619</v>
+        <v>1605</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02861686904915285</v>
+        <v>-0.008684918113518909</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I54" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.0323187912551674</v>
+        <v>-0.007326040092072898</v>
       </c>
       <c r="K54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L54" t="n">
-        <v>5420</v>
+        <v>5320</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0746349813885808</v>
+        <v>-0.0186225120980018</v>
       </c>
       <c r="N54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O54" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.06280090123903036</v>
+        <v>0.02288429383358781</v>
       </c>
       <c r="Q54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R54" t="n">
-        <v>18900</v>
+        <v>19798</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01042451733588421</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>0.04641900043201894</v>
+      </c>
+      <c r="T54" t="s">
+        <v>73</v>
+      </c>
+      <c r="U54" t="n">
+        <v>7253</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.0446899369030347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C55" t="n">
-        <v>1.802</v>
+        <v>1.82924</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.006471798455094361</v>
+        <v>0.01500342085957968</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F55" t="n">
-        <v>1666</v>
+        <v>1619</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009650255832161768</v>
+        <v>-0.02861686904915285</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I55" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01065729447398798</v>
+        <v>-0.0323187912551674</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L55" t="n">
-        <v>5840</v>
+        <v>5420</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0348467313301681</v>
+        <v>-0.0746349813885808</v>
       </c>
       <c r="N55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O55" t="n">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="P55" t="n">
-        <v>0.008733679968754631</v>
+        <v>-0.06280090123903036</v>
       </c>
       <c r="Q55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R55" t="n">
-        <v>18704</v>
+        <v>18900</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.001122124673570591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>0.01042451733588421</v>
+      </c>
+      <c r="T55" t="s">
+        <v>74</v>
+      </c>
+      <c r="U55" t="n">
+        <v>6936</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.03178474149431348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C56" t="n">
-        <v>1.8137</v>
+        <v>1.802</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0004025731648367576</v>
+        <v>-0.006471798455094361</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F56" t="n">
-        <v>1650</v>
+        <v>1666</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01264696170076742</v>
+        <v>0.009650255832161768</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I56" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01077209698191104</v>
+        <v>0.01065729447398798</v>
       </c>
       <c r="K56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L56" t="n">
-        <v>5640</v>
+        <v>5840</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.02797385204240618</v>
+        <v>0.0348467313301681</v>
       </c>
       <c r="N56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O56" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P56" t="n">
-        <v>0.1360408042299484</v>
+        <v>0.008733679968754631</v>
       </c>
       <c r="Q56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R56" t="n">
-        <v>18725</v>
+        <v>18704</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.0004805253836557008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>-0.001122124673570591</v>
+      </c>
+      <c r="T56" t="s">
+        <v>75</v>
+      </c>
+      <c r="U56" t="n">
+        <v>7160</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.01675977543555814</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C57" t="n">
-        <v>1.81297</v>
+        <v>1.8137</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01638488578135835</v>
+        <v>0.0004025731648367576</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F57" t="n">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.008343314191068429</v>
+        <v>-0.01264696170076742</v>
       </c>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I57" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.03197430463251408</v>
+        <v>0.01077209698191104</v>
       </c>
       <c r="K57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L57" t="n">
-        <v>5800</v>
+        <v>5640</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.04220035449037642</v>
+        <v>-0.02797385204240618</v>
       </c>
       <c r="N57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.01000008333458331</v>
+        <v>0.1360408042299484</v>
       </c>
       <c r="Q57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R57" t="n">
-        <v>18734</v>
+        <v>18725</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.01824819895823482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>-0.0004805253836557008</v>
+      </c>
+      <c r="T57" t="s">
+        <v>76</v>
+      </c>
+      <c r="U57" t="n">
+        <v>7041</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.001279045154120382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C58" t="n">
-        <v>1.84292</v>
+        <v>1.81297</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0005478932016577099</v>
+        <v>-0.01638488578135835</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F58" t="n">
-        <v>1685</v>
+        <v>1671</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.001186239759506197</v>
+        <v>-0.008343314191068429</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I58" t="n">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.03774032798284709</v>
+        <v>-0.03197430463251408</v>
       </c>
       <c r="K58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L58" t="n">
-        <v>6050</v>
+        <v>5800</v>
       </c>
       <c r="M58" t="n">
-        <v>0.004472797981166056</v>
+        <v>-0.04220035449037642</v>
       </c>
       <c r="N58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O58" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P58" t="n">
-        <v>0.03030534949532884</v>
+        <v>-0.01000008333458331</v>
       </c>
       <c r="Q58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R58" t="n">
-        <v>19079</v>
+        <v>18734</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.009753630590258173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>-0.01824819895823482</v>
+      </c>
+      <c r="T58" t="s">
+        <v>77</v>
+      </c>
+      <c r="U58" t="n">
+        <v>7032</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.02929291040392362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C59" t="n">
-        <v>1.84393</v>
+        <v>1.84292</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01169546554224723</v>
+        <v>-0.0005478932016577099</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F59" t="n">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01733974685072806</v>
+        <v>-0.001186239759506197</v>
       </c>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I59" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J59" t="n">
-        <v>0.06611102511206257</v>
+        <v>-0.03774032798284709</v>
       </c>
       <c r="K59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L59" t="n">
-        <v>6023</v>
+        <v>6050</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.01760927588653605</v>
+        <v>0.004472797981166056</v>
       </c>
       <c r="N59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O59" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P59" t="n">
-        <v>0.005141399500418652</v>
+        <v>0.03030534949532884</v>
       </c>
       <c r="Q59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R59" t="n">
-        <v>19266</v>
+        <v>19079</v>
       </c>
       <c r="S59" t="n">
-        <v>0.01206249450097111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>-0.009753630590258173</v>
+      </c>
+      <c r="T59" t="s">
+        <v>78</v>
+      </c>
+      <c r="U59" t="n">
+        <v>6829</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.0005855658196889952</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" t="n">
-        <v>1.82249</v>
+        <v>1.84393</v>
       </c>
       <c r="D60" t="n">
-        <v>0.005204219121957262</v>
+        <v>0.01169546554224723</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F60" t="n">
-        <v>1658</v>
+        <v>1687</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01887422847620238</v>
+        <v>0.01733974685072806</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I60" t="n">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.09269066291677457</v>
+        <v>0.06611102511206257</v>
       </c>
       <c r="K60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L60" t="n">
-        <v>6130</v>
+        <v>6023</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.06916686396221587</v>
+        <v>-0.01760927588653605</v>
       </c>
       <c r="N60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O60" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.01025650016718911</v>
+        <v>0.005141399500418652</v>
       </c>
       <c r="Q60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R60" t="n">
-        <v>19035</v>
+        <v>19266</v>
       </c>
       <c r="S60" t="n">
-        <v>0.001629906509785718</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>0.01206249450097111</v>
+      </c>
+      <c r="T60" t="s">
+        <v>79</v>
+      </c>
+      <c r="U60" t="n">
+        <v>6833</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.02040283665550547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C61" t="n">
-        <v>1.81303</v>
+        <v>1.82249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.009092356905724202</v>
+        <v>0.005204219121957262</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F61" t="n">
-        <v>1627</v>
+        <v>1658</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.01766722772616717</v>
+        <v>0.01887422847620238</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I61" t="n">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="J61" t="n">
-        <v>0.009884759232541925</v>
+        <v>-0.09269066291677457</v>
       </c>
       <c r="K61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L61" t="n">
-        <v>6569</v>
+        <v>6130</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.03456099827172509</v>
+        <v>-0.06916686396221587</v>
       </c>
       <c r="N61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O61" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P61" t="n">
-        <v>0.01025650016718906</v>
+        <v>-0.01025650016718911</v>
       </c>
       <c r="Q61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R61" t="n">
-        <v>19004</v>
+        <v>19035</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.0006838326454641368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>0.001629906509785718</v>
+      </c>
+      <c r="T61" t="s">
+        <v>80</v>
+      </c>
+      <c r="U61" t="n">
+        <v>6695</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-0.0002986857847773571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C62" t="n">
-        <v>1.79662</v>
+        <v>1.81303</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02343826497166225</v>
+        <v>0.009092356905724202</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F62" t="n">
-        <v>1656</v>
+        <v>1627</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01766722772616711</v>
+        <v>-0.01766722772616717</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I62" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J62" t="n">
-        <v>0.04746653723892375</v>
+        <v>0.009884759232541925</v>
       </c>
       <c r="K62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L62" t="n">
-        <v>6800</v>
+        <v>6569</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.007326040092072898</v>
+        <v>-0.03456099827172509</v>
       </c>
       <c r="N62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O62" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.03045920748470857</v>
+        <v>0.01025650016718906</v>
       </c>
       <c r="Q62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R62" t="n">
-        <v>19017</v>
+        <v>19004</v>
       </c>
       <c r="S62" t="n">
-        <v>0.01456632126850707</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>-0.0006838326454641368</v>
+      </c>
+      <c r="T62" t="s">
+        <v>81</v>
+      </c>
+      <c r="U62" t="n">
+        <v>6697</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-0.004618257742733782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C63" t="n">
-        <v>1.755</v>
+        <v>1.79662</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006820930543791951</v>
+        <v>0.02343826497166225</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F63" t="n">
-        <v>1627</v>
+        <v>1656</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.01706318059212542</v>
+        <v>0.01766722772616711</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I63" t="n">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="J63" t="n">
-        <v>0.006968669316093436</v>
+        <v>0.04746653723892376</v>
       </c>
       <c r="K63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L63" t="n">
-        <v>6850</v>
+        <v>6800</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.01449300730256686</v>
+        <v>-0.007326040092072898</v>
       </c>
       <c r="N63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O63" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P63" t="n">
-        <v>0.01005033585350151</v>
+        <v>-0.03045920748470857</v>
       </c>
       <c r="Q63" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R63" t="n">
-        <v>18742</v>
+        <v>19017</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.0270037725652403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>0.01456632126850707</v>
+      </c>
+      <c r="T63" t="s">
+        <v>82</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6728</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.02941166681203361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C64" t="n">
-        <v>1.74307</v>
+        <v>1.755</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002326190205460734</v>
+        <v>0.006820930543791951</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F64" t="n">
-        <v>1655</v>
+        <v>1627</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.003618821802131596</v>
+        <v>-0.01706318059212542</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I64" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.03436764350420777</v>
+        <v>0.006968669316093436</v>
       </c>
       <c r="K64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L64" t="n">
-        <v>6950</v>
+        <v>6850</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.007168489478612516</v>
+        <v>-0.01449300730256686</v>
       </c>
       <c r="N64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O64" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.02985296314968116</v>
+        <v>0.01005033585350151</v>
       </c>
       <c r="Q64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R64" t="n">
-        <v>19255</v>
+        <v>18742</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.00103815218252097</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>-0.0270037725652403</v>
+      </c>
+      <c r="T64" t="s">
+        <v>83</v>
+      </c>
+      <c r="U64" t="n">
+        <v>6533</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.008763220043224587</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C65" t="n">
-        <v>1.73902</v>
+        <v>1.74307</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01646001245174762</v>
+        <v>0.002326190205460734</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F65" t="n">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01516559245060254</v>
+        <v>-0.003618821802131596</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I65" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.006734032181344068</v>
+        <v>-0.03436764350420777</v>
       </c>
       <c r="K65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L65" t="n">
-        <v>7000</v>
+        <v>6950</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.0113637586503151</v>
+        <v>-0.007168489478612516</v>
       </c>
       <c r="N65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O65" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P65" t="n">
-        <v>0.004914014802429163</v>
+        <v>-0.02985296314968116</v>
       </c>
       <c r="Q65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R65" t="n">
-        <v>19275</v>
+        <v>19255</v>
       </c>
       <c r="S65" t="n">
-        <v>0.002493378259193619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>-0.00103815218252097</v>
+      </c>
+      <c r="T65" t="s">
+        <v>84</v>
+      </c>
+      <c r="U65" t="n">
+        <v>6476</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.02621302173775833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C66" t="n">
-        <v>1.71063</v>
+        <v>1.73902</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0063923087978623</v>
+        <v>0.01646001245174762</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F66" t="n">
-        <v>1636</v>
+        <v>1661</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0539993072494</v>
+        <v>0.01516559245060254</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I66" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01692087748833718</v>
+        <v>-0.006734032181344068</v>
       </c>
       <c r="K66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L66" t="n">
-        <v>7080</v>
+        <v>7000</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.005774257294359294</v>
+        <v>-0.0113637586503151</v>
       </c>
       <c r="N66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O66" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.01467018974779374</v>
+        <v>0.004914014802429163</v>
       </c>
       <c r="Q66" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R66" t="n">
-        <v>19227</v>
+        <v>19275</v>
       </c>
       <c r="S66" t="n">
-        <v>0.02843393454438289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>0.002493378259193619</v>
+      </c>
+      <c r="T66" t="s">
+        <v>85</v>
+      </c>
+      <c r="U66" t="n">
+        <v>6648</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0006018658020985906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C67" t="n">
-        <v>1.69973</v>
+        <v>1.71063</v>
       </c>
       <c r="D67" t="n">
-        <v>0.003400431718774496</v>
+        <v>0.0063923087978623</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F67" t="n">
-        <v>1550</v>
+        <v>1636</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03278982282299097</v>
+        <v>0.0539993072494</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I67" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.02360986563913374</v>
+        <v>0.01692087748833718</v>
       </c>
       <c r="K67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L67" t="n">
-        <v>7121</v>
+        <v>7080</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0001404395761033003</v>
+        <v>-0.005774257294359294</v>
       </c>
       <c r="N67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O67" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1293791375237553</v>
+        <v>-0.01467018974779374</v>
       </c>
       <c r="Q67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R67" t="n">
-        <v>18688</v>
+        <v>19227</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01146313981155105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>0.02843393454438289</v>
+      </c>
+      <c r="T67" t="s">
+        <v>86</v>
+      </c>
+      <c r="U67" t="n">
+        <v>6644</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.03507519368344873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C68" t="n">
-        <v>1.69396</v>
+        <v>1.69973</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01163247401143597</v>
+        <v>0.003400431718774496</v>
       </c>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F68" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01061017911201557</v>
+        <v>0.03278982282299097</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I68" t="n">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02020270731751947</v>
+        <v>-0.02360986563913374</v>
       </c>
       <c r="K68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L68" t="n">
-        <v>7120</v>
+        <v>7121</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.02084856612154355</v>
+        <v>0.0001404395761033003</v>
       </c>
       <c r="N68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O68" t="n">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="P68" t="n">
-        <v>0.01111122542507085</v>
+        <v>0.1293791375237553</v>
       </c>
       <c r="Q68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R68" t="n">
-        <v>18475</v>
+        <v>18688</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.008676727120284821</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>0.01146313981155105</v>
+      </c>
+      <c r="T68" t="s">
+        <v>87</v>
+      </c>
+      <c r="U68" t="n">
+        <v>6415</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.03813011555355882</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C69" t="n">
-        <v>1.71378</v>
+        <v>1.69396</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00819086012923882</v>
+        <v>-0.01163247401143597</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F69" t="n">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01127706809971935</v>
+        <v>-0.01061017911201557</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I69" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.04976150955906383</v>
+        <v>0.02020270731751947</v>
       </c>
       <c r="K69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L69" t="n">
-        <v>7270</v>
+        <v>7120</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0278958116369467</v>
+        <v>-0.02084856612154355</v>
       </c>
       <c r="N69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O69" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.04372281101383158</v>
+        <v>0.01111122542507085</v>
       </c>
       <c r="Q69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R69" t="n">
-        <v>18636</v>
+        <v>18475</v>
       </c>
       <c r="S69" t="n">
-        <v>0.004463692909809571</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>-0.008676727120284821</v>
+      </c>
+      <c r="T69" t="s">
+        <v>88</v>
+      </c>
+      <c r="U69" t="n">
+        <v>6175</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-0.02226050762175906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C70" t="n">
-        <v>1.6998</v>
+        <v>1.71378</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0009702316086352968</v>
+        <v>0.008190860129238822</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F70" t="n">
-        <v>1499</v>
+        <v>1516</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.02112289755508607</v>
+        <v>0.01127706809971935</v>
       </c>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I70" t="n">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="J70" t="n">
-        <v>0.01960847138837634</v>
+        <v>-0.04976150955906383</v>
       </c>
       <c r="K70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L70" t="n">
-        <v>7070</v>
+        <v>7270</v>
       </c>
       <c r="M70" t="n">
-        <v>0.00141542840333076</v>
+        <v>0.0278958116369467</v>
       </c>
       <c r="N70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O70" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0326115855887608</v>
+        <v>-0.04372281101383158</v>
       </c>
       <c r="Q70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R70" t="n">
-        <v>18553</v>
+        <v>18636</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.01524460535588474</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>0.004463692909809571</v>
+      </c>
+      <c r="T70" t="s">
+        <v>89</v>
+      </c>
+      <c r="U70" t="n">
+        <v>6314</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.02404347267793056</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C71" t="n">
-        <v>1.70145</v>
+        <v>1.6998</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02435604459204887</v>
+        <v>-0.0009702316086352968</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F71" t="n">
-        <v>1531</v>
+        <v>1499</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02245801123805535</v>
+        <v>-0.02112289755508607</v>
       </c>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I71" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="J71" t="n">
-        <v>0.09696170784279784</v>
+        <v>0.01960847138837634</v>
       </c>
       <c r="K71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L71" t="n">
-        <v>7060</v>
+        <v>7070</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04935689697009257</v>
+        <v>0.00141542840333076</v>
       </c>
       <c r="N71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O71" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P71" t="n">
-        <v>0.01111122542507085</v>
+        <v>0.0326115855887608</v>
       </c>
       <c r="Q71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R71" t="n">
-        <v>18838</v>
+        <v>18553</v>
       </c>
       <c r="S71" t="n">
-        <v>0.01799727205149853</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>-0.01524460535588474</v>
+      </c>
+      <c r="T71" t="s">
+        <v>90</v>
+      </c>
+      <c r="U71" t="n">
+        <v>6164</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.001461157821452535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C72" t="n">
-        <v>1.66051</v>
+        <v>1.70145</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01824850734618019</v>
+        <v>0.02435604459204887</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F72" t="n">
-        <v>1497</v>
+        <v>1531</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.03479182549366393</v>
+        <v>0.02245801123805535</v>
       </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I72" t="n">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.01801850550267836</v>
+        <v>0.09696170784279784</v>
       </c>
       <c r="K72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L72" t="n">
-        <v>6720</v>
+        <v>7060</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.05077232537342326</v>
+        <v>0.04935689697009257</v>
       </c>
       <c r="N72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O72" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.08047235322257308</v>
+        <v>0.01111122542507085</v>
       </c>
       <c r="Q72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R72" t="n">
-        <v>18502</v>
+        <v>18838</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.03400603942458785</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>0.01799727205149853</v>
+      </c>
+      <c r="T72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U72" t="n">
+        <v>6155</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.02400641428462584</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C73" t="n">
-        <v>1.69109</v>
+        <v>1.66051</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0166598968654388</v>
+        <v>-0.01824850734618019</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F73" t="n">
-        <v>1550</v>
+        <v>1497</v>
       </c>
       <c r="G73" t="n">
-        <v>0.02548324764055263</v>
+        <v>-0.03479182549366393</v>
       </c>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I73" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J73" t="n">
-        <v>0.007168489478612497</v>
+        <v>-0.01801850550267836</v>
       </c>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L73" t="n">
-        <v>7070</v>
+        <v>6720</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.03064306611208544</v>
+        <v>-0.05077232537342326</v>
       </c>
       <c r="N73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O73" t="n">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.03544674899574757</v>
+        <v>-0.08047235322257308</v>
       </c>
       <c r="Q73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R73" t="n">
-        <v>19142</v>
+        <v>18502</v>
       </c>
       <c r="S73" t="n">
-        <v>0.0008884940611152349</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>-0.03400603942458785</v>
+      </c>
+      <c r="T73" t="s">
+        <v>92</v>
+      </c>
+      <c r="U73" t="n">
+        <v>6009</v>
+      </c>
+      <c r="V73" t="n">
+        <v>-0.04012279856708352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C74" t="n">
-        <v>1.66315</v>
+        <v>1.69109</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.03109028030025094</v>
+        <v>0.0166598968654388</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F74" t="n">
-        <v>1511</v>
+        <v>1550</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.04465316374827293</v>
+        <v>0.02548324764055263</v>
       </c>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I74" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.03533936644530885</v>
+        <v>0.007168489478612497</v>
       </c>
       <c r="K74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L74" t="n">
-        <v>7290</v>
+        <v>7070</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.0323914957912354</v>
+        <v>-0.03064306611208544</v>
       </c>
       <c r="N74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O74" t="n">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.07659244548138382</v>
+        <v>-0.03544674899574757</v>
       </c>
       <c r="Q74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R74" t="n">
-        <v>19125</v>
+        <v>19142</v>
       </c>
       <c r="S74" t="n">
-        <v>-0.054735728419725</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>0.0008884940611152349</v>
+      </c>
+      <c r="T74" t="s">
+        <v>93</v>
+      </c>
+      <c r="U74" t="n">
+        <v>6255</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.01060762116164989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C75" t="n">
-        <v>1.71567</v>
+        <v>1.66315</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.008444893174660226</v>
+        <v>-0.03109028030025093</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F75" t="n">
-        <v>1580</v>
+        <v>1511</v>
       </c>
       <c r="G75" t="n">
-        <v>0.00953902304675891</v>
+        <v>-0.04465316374827293</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I75" t="n">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.04082199452025517</v>
+        <v>-0.03533936644530885</v>
       </c>
       <c r="K75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L75" t="n">
-        <v>7530</v>
+        <v>7290</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.04416302061750963</v>
+        <v>-0.0323914957912354</v>
       </c>
       <c r="N75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O75" t="n">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="P75" t="n">
-        <v>0.02803922006439313</v>
+        <v>-0.07659244548138382</v>
       </c>
       <c r="Q75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R75" t="n">
-        <v>20201</v>
+        <v>19125</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.0009895602212680887</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>-0.054735728419725</v>
+      </c>
+      <c r="T75" t="s">
+        <v>94</v>
+      </c>
+      <c r="U75" t="n">
+        <v>6189</v>
+      </c>
+      <c r="V75" t="n">
+        <v>-0.06050105530660376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C76" t="n">
-        <v>1.73022</v>
+        <v>1.71567</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.0114129331216431</v>
+        <v>-0.008444893174660226</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F76" t="n">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.05410085110666984</v>
+        <v>0.00953902304675891</v>
       </c>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I76" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.08004270767353637</v>
+        <v>-0.04082199452025517</v>
       </c>
       <c r="K76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L76" t="n">
-        <v>7870</v>
+        <v>7530</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04682259665326848</v>
+        <v>-0.04416302061750963</v>
       </c>
       <c r="N76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O76" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.16960278438618</v>
+        <v>0.02803922006439313</v>
       </c>
       <c r="Q76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R76" t="n">
-        <v>20221</v>
+        <v>20201</v>
       </c>
       <c r="S76" t="n">
-        <v>-0.01968528946831743</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>-0.0009895602212680887</v>
+      </c>
+      <c r="T76" t="s">
+        <v>95</v>
+      </c>
+      <c r="U76" t="n">
+        <v>6575</v>
+      </c>
+      <c r="V76" t="n">
+        <v>-0.02032437291976218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C77" t="n">
-        <v>1.75008</v>
+        <v>1.73022</v>
       </c>
       <c r="D77" t="n">
-        <v>0.008780896970132063</v>
+        <v>-0.0114129331216431</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F77" t="n">
-        <v>1652</v>
+        <v>1565</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.01023796958091174</v>
+        <v>-0.05410085110666984</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I77" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01238405919972162</v>
+        <v>-0.08004270767353637</v>
       </c>
       <c r="K77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L77" t="n">
-        <v>7510</v>
+        <v>7870</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04215443975403382</v>
+        <v>0.04682259665326848</v>
       </c>
       <c r="N77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O77" t="n">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="P77" t="n">
-        <v>0.1839228381609284</v>
+        <v>-0.16960278438618</v>
       </c>
       <c r="Q77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R77" t="n">
-        <v>20623</v>
+        <v>20221</v>
       </c>
       <c r="S77" t="n">
-        <v>0.008766432219039206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>-0.01968528946831743</v>
+      </c>
+      <c r="T77" t="s">
+        <v>96</v>
+      </c>
+      <c r="U77" t="n">
+        <v>6710</v>
+      </c>
+      <c r="V77" t="n">
+        <v>-0.007275999134626609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C78" t="n">
-        <v>1.73478</v>
+        <v>1.75008</v>
       </c>
       <c r="D78" t="n">
-        <v>0.006355249128826594</v>
+        <v>0.008780896970132063</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F78" t="n">
-        <v>1669</v>
+        <v>1652</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02485335023035843</v>
+        <v>-0.01023796958091174</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I78" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>0.01238405919972162</v>
       </c>
       <c r="K78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L78" t="n">
-        <v>7200</v>
+        <v>7510</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03966525639243135</v>
+        <v>0.04215443975403382</v>
       </c>
       <c r="N78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O78" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="P78" t="n">
-        <v>0.03922071315328133</v>
+        <v>0.1839228381609284</v>
       </c>
       <c r="Q78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R78" t="n">
-        <v>20443</v>
+        <v>20623</v>
       </c>
       <c r="S78" t="n">
-        <v>-0.02004909771162715</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>0.008766432219039206</v>
+      </c>
+      <c r="T78" t="s">
+        <v>97</v>
+      </c>
+      <c r="U78" t="n">
+        <v>6759</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.02441154542086452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C79" t="n">
-        <v>1.72379</v>
+        <v>1.73478</v>
       </c>
       <c r="D79" t="n">
-        <v>0.004546836681845239</v>
+        <v>0.006355249128826594</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F79" t="n">
-        <v>1711</v>
+        <v>1669</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04604699847224528</v>
+        <v>-0.02485335023035843</v>
       </c>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I79" t="n">
         <v>321</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.006211200092640636</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L79" t="n">
-        <v>6920</v>
+        <v>7200</v>
       </c>
       <c r="M79" t="n">
-        <v>0.008708327891784414</v>
+        <v>0.03966525639243135</v>
       </c>
       <c r="N79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O79" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P79" t="n">
-        <v>0.05657035148839424</v>
+        <v>0.03922071315328133</v>
       </c>
       <c r="Q79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R79" t="n">
-        <v>20857</v>
+        <v>20443</v>
       </c>
       <c r="S79" t="n">
-        <v>0.002736636607225686</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>-0.02004909771162715</v>
+      </c>
+      <c r="T79" t="s">
+        <v>98</v>
+      </c>
+      <c r="U79" t="n">
+        <v>6596</v>
+      </c>
+      <c r="V79" t="n">
+        <v>-0.00363196525156441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C80" t="n">
-        <v>1.71597</v>
+        <v>1.72379</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.004587444052088475</v>
+        <v>0.004546836681845239</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F80" t="n">
-        <v>1634</v>
+        <v>1711</v>
       </c>
       <c r="G80" t="n">
-        <v>0.005523180656110287</v>
+        <v>0.04604699847224529</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I80" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.006172859107080968</v>
+        <v>-0.006211200092640636</v>
       </c>
       <c r="K80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L80" t="n">
-        <v>6860</v>
+        <v>6920</v>
       </c>
       <c r="M80" t="n">
-        <v>0.002919710103334846</v>
+        <v>0.008708327891784414</v>
       </c>
       <c r="N80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O80" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="P80" t="n">
-        <v>0.09425253824618929</v>
+        <v>0.05657035148839424</v>
       </c>
       <c r="Q80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R80" t="n">
-        <v>20800</v>
+        <v>20857</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.01365632644748564</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>0.002736636607225686</v>
+      </c>
+      <c r="T80" t="s">
+        <v>99</v>
+      </c>
+      <c r="U80" t="n">
+        <v>6620</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.02632536474458957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C81" t="n">
-        <v>1.72386</v>
+        <v>1.71597</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01108296652035423</v>
+        <v>-0.004587444052088475</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F81" t="n">
-        <v>1625</v>
+        <v>1634</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.004298440760214443</v>
+        <v>0.005523180656110287</v>
       </c>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I81" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.006134988567515944</v>
+        <v>-0.006172859107080968</v>
       </c>
       <c r="K81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
-        <v>6840</v>
+        <v>6860</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.01451404288425407</v>
+        <v>0.002919710103334846</v>
       </c>
       <c r="N81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O81" t="n">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="P81" t="n">
-        <v>0.01169603976319124</v>
+        <v>0.09425253824618929</v>
       </c>
       <c r="Q81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R81" t="n">
-        <v>21086</v>
+        <v>20800</v>
       </c>
       <c r="S81" t="n">
-        <v>0.02031304872750418</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>-0.01365632644748564</v>
+      </c>
+      <c r="T81" t="s">
+        <v>100</v>
+      </c>
+      <c r="U81" t="n">
+        <v>6448</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.009348774851561228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70486</v>
+        <v>1.72386</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003590309443984903</v>
+        <v>0.01108296652035423</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F82" t="n">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02922184921267124</v>
+        <v>-0.004298440760214443</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I82" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.03898544671295365</v>
+        <v>-0.006134988567515944</v>
       </c>
       <c r="K82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L82" t="n">
-        <v>6940</v>
+        <v>6840</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01568431803244436</v>
+        <v>-0.01451404288425407</v>
       </c>
       <c r="N82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O82" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P82" t="n">
-        <v>-0.005865119452398134</v>
+        <v>0.01169603976319124</v>
       </c>
       <c r="Q82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R82" t="n">
-        <v>20662</v>
+        <v>21086</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.01183559642342178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>0.02031304872750418</v>
+      </c>
+      <c r="T82" t="s">
+        <v>101</v>
+      </c>
+      <c r="U82" t="n">
+        <v>6388</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.02183976660445597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C83" t="n">
-        <v>1.69875</v>
+        <v>1.70486</v>
       </c>
       <c r="D83" t="n">
-        <v>0.005685003223968742</v>
+        <v>0.003590309443984903</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F83" t="n">
-        <v>1585</v>
+        <v>1632</v>
       </c>
       <c r="G83" t="n">
-        <v>0.007599783253103089</v>
+        <v>0.02922184921267124</v>
       </c>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I83" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.02325686216426723</v>
+        <v>-0.03898544671295365</v>
       </c>
       <c r="K83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L83" t="n">
-        <v>6832</v>
+        <v>6940</v>
       </c>
       <c r="M83" t="n">
-        <v>0.002344666959254055</v>
+        <v>0.01568431803244436</v>
       </c>
       <c r="N83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O83" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P83" t="n">
-        <v>0.005865119452398058</v>
+        <v>-0.005865119452398134</v>
       </c>
       <c r="Q83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R83" t="n">
-        <v>20908</v>
+        <v>20662</v>
       </c>
       <c r="S83" t="n">
-        <v>0.01629815718580962</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>-0.01183559642342178</v>
+      </c>
+      <c r="T83" t="s">
+        <v>102</v>
+      </c>
+      <c r="U83" t="n">
+        <v>6250</v>
+      </c>
+      <c r="V83" t="n">
+        <v>-0.01129595974185154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C84" t="n">
-        <v>1.68912</v>
+        <v>1.69875</v>
       </c>
       <c r="D84" t="n">
-        <v>0.003041705699024238</v>
+        <v>0.005685003223968742</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F84" t="n">
-        <v>1573</v>
+        <v>1585</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03099021401676592</v>
+        <v>0.007599783253103089</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I84" t="n">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J84" t="n">
-        <v>0.005763704716750134</v>
+        <v>-0.02325686216426723</v>
       </c>
       <c r="K84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L84" t="n">
-        <v>6816</v>
+        <v>6832</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.05063286508451439</v>
+        <v>0.002344666959254055</v>
       </c>
       <c r="N84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O84" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.005865119452398134</v>
+        <v>0.005865119452398058</v>
       </c>
       <c r="Q84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R84" t="n">
-        <v>20570</v>
+        <v>20908</v>
       </c>
       <c r="S84" t="n">
-        <v>0.003067412391233005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>0.01629815718580962</v>
+      </c>
+      <c r="T84" t="s">
+        <v>103</v>
+      </c>
+      <c r="U84" t="n">
+        <v>6321</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.03084581898656693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C85" t="n">
-        <v>1.68399</v>
+        <v>1.68912</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.003148264386322152</v>
+        <v>0.003041705699024238</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F85" t="n">
-        <v>1525</v>
+        <v>1573</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02388965635750308</v>
+        <v>0.03099021401676592</v>
       </c>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I85" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J85" t="n">
-        <v>0.008708327891784414</v>
+        <v>0.005763704716750134</v>
       </c>
       <c r="K85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L85" t="n">
-        <v>7170</v>
+        <v>6816</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.03427340256776007</v>
+        <v>-0.05063286508451439</v>
       </c>
       <c r="N85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O85" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.01739174271186922</v>
+        <v>-0.005865119452398134</v>
       </c>
       <c r="Q85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R85" t="n">
-        <v>20507</v>
+        <v>20570</v>
       </c>
       <c r="S85" t="n">
-        <v>0.00709587258862863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>0.003067412391233005</v>
+      </c>
+      <c r="T85" t="s">
+        <v>104</v>
+      </c>
+      <c r="U85" t="n">
+        <v>6129</v>
+      </c>
+      <c r="V85" t="n">
+        <v>-0.00796298999279527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C86" t="n">
-        <v>1.6893</v>
+        <v>1.68399</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.003810878897506457</v>
+        <v>-0.003148264386322152</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F86" t="n">
-        <v>1489</v>
+        <v>1525</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05105820967201188</v>
+        <v>0.02388965635750308</v>
       </c>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I86" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.01159433278091926</v>
+        <v>0.008708327891784414</v>
       </c>
       <c r="K86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L86" t="n">
-        <v>7420</v>
+        <v>7170</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.01869213301215252</v>
+        <v>-0.03427340256776007</v>
       </c>
       <c r="N86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O86" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P86" t="n">
-        <v>0.01156082240107601</v>
+        <v>-0.01739174271186922</v>
       </c>
       <c r="Q86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R86" t="n">
-        <v>20362</v>
+        <v>20507</v>
       </c>
       <c r="S86" t="n">
-        <v>-0.02272383658787668</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>0.00709587258862863</v>
+      </c>
+      <c r="T86" t="s">
+        <v>105</v>
+      </c>
+      <c r="U86" t="n">
+        <v>6178</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.01813034553622921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C87" t="n">
-        <v>1.69575</v>
+        <v>1.6893</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0003537631592566982</v>
+        <v>-0.003810878897506457</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F87" t="n">
-        <v>1567</v>
+        <v>1489</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05374819111922089</v>
+        <v>-0.05105820967201188</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I87" t="n">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03221361998365506</v>
+        <v>-0.01159433278091926</v>
       </c>
       <c r="K87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L87" t="n">
-        <v>7560</v>
+        <v>7420</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1207636637945213</v>
+        <v>-0.01869213301215252</v>
       </c>
       <c r="N87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O87" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P87" t="n">
-        <v>0.005830920310793144</v>
+        <v>0.01156082240107601</v>
       </c>
       <c r="Q87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R87" t="n">
-        <v>20830</v>
+        <v>20362</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.0003359973151825491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>-0.02272383658787668</v>
+      </c>
+      <c r="T87" t="s">
+        <v>106</v>
+      </c>
+      <c r="U87" t="n">
+        <v>6067</v>
+      </c>
+      <c r="V87" t="n">
+        <v>-0.03323103408794594</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C88" t="n">
-        <v>1.69635</v>
+        <v>1.69575</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01849161155560137</v>
+        <v>-0.0003537631592566982</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F88" t="n">
-        <v>1485</v>
+        <v>1567</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.05374819111922089</v>
       </c>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I88" t="n">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="J88" t="n">
-        <v>0.008968669982760316</v>
+        <v>0.03221361998365506</v>
       </c>
       <c r="K88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L88" t="n">
-        <v>6700</v>
+        <v>7560</v>
       </c>
       <c r="M88" t="n">
-        <v>0.05997184984379861</v>
+        <v>0.1207636637945213</v>
       </c>
       <c r="N88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O88" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P88" t="n">
-        <v>-0.00583092031079321</v>
+        <v>0.005830920310793144</v>
       </c>
       <c r="Q88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R88" t="n">
-        <v>20837</v>
+        <v>20830</v>
       </c>
       <c r="S88" t="n">
-        <v>-0.002779643311815566</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>-0.0003359973151825491</v>
+      </c>
+      <c r="T88" t="s">
+        <v>107</v>
+      </c>
+      <c r="U88" t="n">
+        <v>6272</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.01850563711903373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C89" t="n">
-        <v>1.66527</v>
+        <v>1.69635</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01435244682895308</v>
+        <v>0.01849161155560137</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F89" t="n">
         <v>1485</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03077165866675369</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I89" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.008968669982760375</v>
+        <v>0.008968669982760316</v>
       </c>
       <c r="K89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L89" t="n">
-        <v>6310</v>
+        <v>6700</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01099525060121576</v>
+        <v>0.05997184984379861</v>
       </c>
       <c r="N89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O89" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P89" t="n">
-        <v>-0.02298951822469872</v>
+        <v>-0.00583092031079321</v>
       </c>
       <c r="Q89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R89" t="n">
-        <v>20895</v>
+        <v>20837</v>
       </c>
       <c r="S89" t="n">
-        <v>0.02230971573064675</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>-0.002779643311815566</v>
+      </c>
+      <c r="T89" t="s">
+        <v>108</v>
+      </c>
+      <c r="U89" t="n">
+        <v>6157</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.006027549404838344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C90" t="n">
-        <v>1.64154</v>
+        <v>1.66527</v>
       </c>
       <c r="D90" t="n">
-        <v>0.007287966813189881</v>
+        <v>0.01435244682895308</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F90" t="n">
-        <v>1440</v>
+        <v>1485</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04764498680207525</v>
+        <v>0.03077165866675369</v>
       </c>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I90" t="n">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01499278458614132</v>
+        <v>-0.008968669982760375</v>
       </c>
       <c r="K90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L90" t="n">
-        <v>6241</v>
+        <v>6310</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.001441037796404191</v>
+        <v>0.01099525060121576</v>
       </c>
       <c r="N90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O90" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.01690181080260325</v>
+        <v>-0.02298951822469872</v>
       </c>
       <c r="Q90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R90" t="n">
-        <v>20434</v>
+        <v>20895</v>
       </c>
       <c r="S90" t="n">
-        <v>0.03146773869357451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+        <v>0.02230971573064675</v>
+      </c>
+      <c r="T90" t="s">
+        <v>109</v>
+      </c>
+      <c r="U90" t="n">
+        <v>6120</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.02968462715063032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C91" t="n">
-        <v>1.62962</v>
+        <v>1.64154</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002906737622783477</v>
+        <v>0.007287966813189881</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F91" t="n">
-        <v>1373</v>
+        <v>1440</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.006533598559644134</v>
+        <v>0.04764498680207525</v>
       </c>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I91" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.01796455497529877</v>
+        <v>0.01499278458614132</v>
       </c>
       <c r="K91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L91" t="n">
-        <v>6250</v>
+        <v>6241</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.01587334915629012</v>
+        <v>-0.001441037796404191</v>
       </c>
       <c r="N91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O91" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>-0.01690181080260325</v>
       </c>
       <c r="Q91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R91" t="n">
-        <v>19801</v>
+        <v>20434</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0001515189780419247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>0.03146773869357451</v>
+      </c>
+      <c r="T91" t="s">
+        <v>110</v>
+      </c>
+      <c r="U91" t="n">
+        <v>5941</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.01971846992184009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C92" t="n">
-        <v>1.62489</v>
+        <v>1.62962</v>
       </c>
       <c r="D92" t="n">
-        <v>0.007424920451963811</v>
+        <v>0.002906737622783477</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F92" t="n">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03385165023102425</v>
+        <v>-0.006533598559644134</v>
       </c>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I92" t="n">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04243060712970524</v>
+        <v>-0.01796455497529877</v>
       </c>
       <c r="K92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L92" t="n">
-        <v>6350</v>
+        <v>6250</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01907848010523858</v>
+        <v>-0.01587334915629012</v>
       </c>
       <c r="N92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O92" t="n">
         <v>179</v>
       </c>
       <c r="P92" t="n">
-        <v>0.03989132902730202</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="R92" t="n">
-        <v>19798</v>
+        <v>19801</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.0001010152028738619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>0.0001515189780419247</v>
+      </c>
+      <c r="T92" t="s">
+        <v>111</v>
+      </c>
+      <c r="U92" t="n">
+        <v>5825</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.005854011208111569</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C93" t="n">
-        <v>1.61287</v>
+        <v>1.62489</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001687858372422747</v>
+        <v>0.007424920451963811</v>
       </c>
       <c r="E93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F93" t="n">
-        <v>1336</v>
+        <v>1382</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01338309937562931</v>
+        <v>0.03385165023102425</v>
       </c>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I93" t="n">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05080457563545941</v>
+        <v>0.04243060712970524</v>
       </c>
       <c r="K93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L93" t="n">
-        <v>6230</v>
+        <v>6350</v>
       </c>
       <c r="M93" t="n">
-        <v>0.004827040748315944</v>
+        <v>0.01907848010523858</v>
       </c>
       <c r="N93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O93" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P93" t="n">
-        <v>-0.02865525576037606</v>
+        <v>0.03989132902730202</v>
       </c>
       <c r="Q93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R93" t="n">
-        <v>19800</v>
+        <v>19798</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.006042314455962586</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+        <v>-0.0001010152028738619</v>
+      </c>
+      <c r="T93" t="s">
+        <v>112</v>
+      </c>
+      <c r="U93" t="n">
+        <v>5791</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.01724330801604684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C94" t="n">
-        <v>1.61015</v>
+        <v>1.61287</v>
       </c>
       <c r="D94" t="n">
-        <v>0.004406801562132158</v>
+        <v>0.001687858372422747</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F94" t="n">
-        <v>1354</v>
+        <v>1336</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009647570190541778</v>
+        <v>-0.01338309937562931</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I94" t="n">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="J94" t="n">
-        <v>0.009820046180975513</v>
+        <v>0.05080457563545941</v>
       </c>
       <c r="K94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L94" t="n">
-        <v>6200</v>
+        <v>6230</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.03486882565082394</v>
+        <v>0.004827040748315944</v>
       </c>
       <c r="N94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O94" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P94" t="n">
-        <v>0.02285813807605018</v>
+        <v>-0.02865525576037606</v>
       </c>
       <c r="Q94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R94" t="n">
-        <v>19920</v>
+        <v>19800</v>
       </c>
       <c r="S94" t="n">
-        <v>0.009229205384481709</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>-0.006042314455962586</v>
+      </c>
+      <c r="T94" t="s">
+        <v>113</v>
+      </c>
+      <c r="U94" t="n">
+        <v>5692</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.02041068282018933</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C95" t="n">
-        <v>1.60307</v>
+        <v>1.61015</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0007550867304374921</v>
+        <v>0.004406801562132158</v>
       </c>
       <c r="E95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F95" t="n">
-        <v>1341</v>
+        <v>1354</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02338846708648126</v>
+        <v>0.009647570190541778</v>
       </c>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I95" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01324522675002072</v>
+        <v>0.009820046180975513</v>
       </c>
       <c r="K95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L95" t="n">
-        <v>6420</v>
+        <v>6200</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.02765153133051001</v>
+        <v>-0.03486882565082394</v>
       </c>
       <c r="N95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O95" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>0.02285813807605018</v>
       </c>
       <c r="Q95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R95" t="n">
-        <v>19737</v>
+        <v>19920</v>
       </c>
       <c r="S95" t="n">
-        <v>0.002892155147863191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>0.009229205384481709</v>
+      </c>
+      <c r="T95" t="s">
+        <v>114</v>
+      </c>
+      <c r="U95" t="n">
+        <v>5577</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.003952574315823342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C96" t="n">
-        <v>1.60186</v>
+        <v>1.60307</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01285492341113475</v>
+        <v>0.0007550867304374921</v>
       </c>
       <c r="E96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F96" t="n">
-        <v>1310</v>
+        <v>1341</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00920251893116192</v>
+        <v>0.02338846708648126</v>
       </c>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I96" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.01980262729617975</v>
+        <v>0.01324522675002072</v>
       </c>
       <c r="K96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L96" t="n">
-        <v>6600</v>
+        <v>6420</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01066270574404011</v>
+        <v>-0.02765153133051001</v>
       </c>
       <c r="N96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O96" t="n">
         <v>173</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.01719240054037287</v>
+        <v>0</v>
       </c>
       <c r="Q96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R96" t="n">
-        <v>19680</v>
+        <v>19737</v>
       </c>
       <c r="S96" t="n">
-        <v>0.004736810751501249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+        <v>0.002892155147863191</v>
+      </c>
+      <c r="T96" t="s">
+        <v>115</v>
+      </c>
+      <c r="U96" t="n">
+        <v>5555</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.008315304601013837</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C97" t="n">
-        <v>1.5814</v>
+        <v>1.60186</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.002564055388827931</v>
+        <v>0.01285492341113475</v>
       </c>
       <c r="E97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F97" t="n">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0007701194065641862</v>
+        <v>0.00920251893116192</v>
       </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I97" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.01298719552681119</v>
+        <v>-0.01980262729617975</v>
       </c>
       <c r="K97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L97" t="n">
-        <v>6530</v>
+        <v>6600</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.02271104426021465</v>
+        <v>0.01066270574404011</v>
       </c>
       <c r="N97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O97" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P97" t="n">
-        <v>0.02298951822469878</v>
+        <v>-0.01719240054037287</v>
       </c>
       <c r="Q97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R97" t="n">
-        <v>19587</v>
+        <v>19680</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.008996020110897479</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>0.004736810751501248</v>
+      </c>
+      <c r="T97" t="s">
+        <v>116</v>
+      </c>
+      <c r="U97" t="n">
+        <v>5509</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.008385029076998842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C98" t="n">
-        <v>1.58546</v>
+        <v>1.5814</v>
       </c>
       <c r="D98" t="n">
-        <v>0.007019393787260745</v>
+        <v>-0.002564055388827931</v>
       </c>
       <c r="E98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F98" t="n">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.000769526779028541</v>
+        <v>-0.0007701194065641862</v>
       </c>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I98" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.05338787341806144</v>
+        <v>-0.01298719552681119</v>
       </c>
       <c r="K98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L98" t="n">
-        <v>6680</v>
+        <v>6530</v>
       </c>
       <c r="M98" t="n">
-        <v>0.08266590573012786</v>
+        <v>-0.02271104426021465</v>
       </c>
       <c r="N98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O98" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.02865525576037606</v>
+        <v>0.02298951822469878</v>
       </c>
       <c r="Q98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R98" t="n">
-        <v>19764</v>
+        <v>19587</v>
       </c>
       <c r="S98" t="n">
-        <v>0.01344763541380242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>-0.008996020110897479</v>
+      </c>
+      <c r="T98" t="s">
+        <v>117</v>
+      </c>
+      <c r="U98" t="n">
+        <v>5463</v>
+      </c>
+      <c r="V98" t="n">
+        <v>-0.03170865541146446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C99" t="n">
-        <v>1.57437</v>
+        <v>1.58546</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.004682958880200747</v>
+        <v>0.007019393787260745</v>
       </c>
       <c r="E99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F99" t="n">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01394290596901267</v>
+        <v>-0.000769526779028541</v>
       </c>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I99" t="n">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="J99" t="n">
-        <v>0.003062789530545731</v>
+        <v>-0.05338787341806145</v>
       </c>
       <c r="K99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L99" t="n">
-        <v>6150</v>
+        <v>6680</v>
       </c>
       <c r="M99" t="n">
-        <v>0.08923113372794261</v>
+        <v>0.08266590573012786</v>
       </c>
       <c r="N99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O99" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.03333642026759184</v>
+        <v>-0.02865525576037606</v>
       </c>
       <c r="Q99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R99" t="n">
-        <v>19500</v>
+        <v>19764</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.005217136277286959</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
+        <v>0.01344763541380242</v>
+      </c>
+      <c r="T99" t="s">
+        <v>118</v>
+      </c>
+      <c r="U99" t="n">
+        <v>5639</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.02423164419400251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C100" t="n">
-        <v>1.58176</v>
+        <v>1.57437</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.003483708367620388</v>
+        <v>-0.004682958880200747</v>
       </c>
       <c r="E100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F100" t="n">
-        <v>1282</v>
+        <v>1300</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.01394290596901267</v>
       </c>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I100" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01857638557293546</v>
+        <v>0.003062789530545731</v>
       </c>
       <c r="K100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L100" t="n">
-        <v>5625</v>
+        <v>6150</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.03904975837040491</v>
+        <v>0.08923113372794261</v>
       </c>
       <c r="N100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O100" t="n">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P100" t="n">
-        <v>-0.01086967223690388</v>
+        <v>-0.03333642026759184</v>
       </c>
       <c r="Q100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R100" t="n">
-        <v>19602</v>
+        <v>19500</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.01060573714520145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>-0.005217136277286959</v>
+      </c>
+      <c r="T100" t="s">
+        <v>119</v>
+      </c>
+      <c r="U100" t="n">
+        <v>5504</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.004005102750448441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C101" t="n">
-        <v>1.58728</v>
+        <v>1.58176</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E101" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F101" t="n">
         <v>1282</v>
       </c>
       <c r="G101" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I101" t="n">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J101" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K101" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L101" t="n">
-        <v>5849</v>
+        <v>5625</v>
       </c>
       <c r="M101" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N101" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O101" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P101" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q101" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R101" t="n">
-        <v>19811</v>
+        <v>19602</v>
       </c>
       <c r="S101" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="T101" t="s">
+        <v>120</v>
+      </c>
+      <c r="U101" t="n">
+        <v>5482</v>
+      </c>
+      <c r="V101" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
